--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>495784.7016702824</v>
+        <v>502916.8235596364</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
@@ -798,13 +798,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>14.48693373137008</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="X6" t="n">
         <v>205.5178444382804</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,70 +1136,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.22620338270564</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,58 +1373,58 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>94.02368386149517</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,64 +1607,64 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>54.97933811727043</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>52.33739655895485</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,73 +2081,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.4223624459043</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2208,10 +2208,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>163.5442732109544</v>
       </c>
     </row>
     <row r="22">
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>241.0142888776591</v>
@@ -2330,61 +2330,61 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>80.16374038692172</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>33.80371536444976</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,76 +2710,76 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>135.4141600157168</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>38.81508493781259</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>96.11446174710331</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>80.33470701582003</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>27.77528313300961</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>62.13484214871502</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.96447429313291</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>22.4475053970671</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>61.6131063879917</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>9.826294196391718</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>205.5178444382804</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>67.40972515104126</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>5.489960460553293</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.90708355515102</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4334,13 +4334,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>431.628992076841</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V3" t="n">
-        <v>224.0352098159517</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4507,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4598,19 +4598,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.07469395038575</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4650,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4683,13 +4683,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="X6" t="n">
-        <v>406.8838132313431</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.2900309704538</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4750,25 +4750,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4805,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4847,7 +4847,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.27987404077794</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>180.6532664903314</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>180.6532664903314</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>41.92244107294692</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>41.92244107294692</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U9" t="n">
-        <v>238.8736563016672</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V9" t="n">
-        <v>238.8736563016672</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W9" t="n">
-        <v>31.27987404077794</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X9" t="n">
-        <v>31.27987404077794</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.27987404077794</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5042,16 +5042,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5072,19 +5072,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.8838132313431</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C12" t="n">
-        <v>311.9103951894288</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D12" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
         <v>16.44142755506243</v>
@@ -5121,19 +5121,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E14" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F14" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T14" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>660.5968149695918</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V14" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W14" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X14" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y14" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>552.6865112859393</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C15" t="n">
-        <v>378.2334820048123</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D15" t="n">
-        <v>229.2990723435611</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>70.06161733810558</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5358,16 +5358,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5479,7 +5479,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5595,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
         <v>234.810827406191</v>
@@ -5695,13 +5695,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>343.4227147053767</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="C21" t="n">
-        <v>168.9696854242497</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729568</v>
+        <v>697.6913904969012</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,25 +6011,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
         <v>506.1786963984129</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.492073253973</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>227.0414418751666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0414418751666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6163,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>718.7806050553886</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W26" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X26" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y26" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6312,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U29" t="n">
+      <c r="W29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W29" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6549,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,22 +6567,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>497.8820279860555</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6646,7 +6646,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>132.7447050367114</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>380.2300195200815</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="C33" t="n">
-        <v>205.7769902389545</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="D33" t="n">
-        <v>205.7769902389545</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="E33" t="n">
-        <v>166.5698337361135</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,46 +6783,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X33" t="n">
-        <v>756.2056553051034</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y33" t="n">
-        <v>548.4453565401495</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
         <v>506.1786963984129</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>251.7598820467572</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>251.7598820467572</v>
       </c>
       <c r="D36" t="n">
-        <v>640.669716568258</v>
+        <v>251.7598820467572</v>
       </c>
       <c r="E36" t="n">
-        <v>481.4322615628025</v>
+        <v>251.7598820467572</v>
       </c>
       <c r="F36" t="n">
-        <v>334.8977035896875</v>
+        <v>251.7598820467572</v>
       </c>
       <c r="G36" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>82.7977425798823</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7196,13 +7196,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
         <v>506.1786963984129</v>
@@ -7217,7 +7217,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>325.0531560887832</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C39" t="n">
-        <v>325.0531560887832</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>767.9655630854797</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>767.9655630854797</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>532.8134548537371</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>532.8134548537371</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X39" t="n">
-        <v>532.8134548537371</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y39" t="n">
-        <v>325.0531560887832</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="40">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7418,10 +7418,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7454,7 +7454,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>446.2622584721643</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>446.2622584721643</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D42" t="n">
-        <v>446.2622584721643</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E42" t="n">
-        <v>287.0248034667088</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F42" t="n">
-        <v>140.4902454935938</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
         <v>17.19556020784815</v>
@@ -7494,19 +7494,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7527,13 +7527,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C44" t="n">
-        <v>396.792197863116</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7670,28 +7670,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="C45" t="n">
-        <v>233.4664686820119</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="D45" t="n">
-        <v>84.53205902076067</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>84.53205902076067</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>84.53205902076067</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53205902076067</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,16 +7731,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>541.9390891500567</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>541.9390891500567</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>541.9390891500567</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>541.9390891500567</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>541.9390891500567</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>334.3453068891674</v>
       </c>
     </row>
     <row r="46">
@@ -7828,19 +7828,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7982,7 +7982,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7991,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8073,10 +8073,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8307,10 +8307,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,7 +8702,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -8939,7 +8939,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,10 +11154,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,19 +11379,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>375.7250463016238</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22592,7 +22592,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>157.1962373724677</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22674,10 +22674,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
@@ -22686,13 +22686,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22747,7 +22747,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22756,7 +22756,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946079</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22838,16 +22838,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>180.1701406907881</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,7 +22863,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>158.2215652569457</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22923,7 +22923,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>204.3987039795849</v>
       </c>
       <c r="X6" t="n">
         <v>0.2551407651970692</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22990,7 +22990,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23024,7 +23024,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23039,7 +23039,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,25 +23100,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>158.0184369674574</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>64.17042946870943</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,25 +23145,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,22 +23261,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23312,7 +23312,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23334,19 +23334,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>78.68481512682057</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,19 +23495,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>372.7193592013314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>92.46572744736832</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92.73181583442903</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23732,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23777,19 +23777,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,13 +23978,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.11082120396307</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,10 +24096,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>42.13842256634993</v>
       </c>
     </row>
     <row r="22">
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>124.2586028933485</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,13 +24251,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24300,7 +24300,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>32.07170384957475</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>201.1021466825878</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24403,16 +24403,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,10 +24458,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,10 +24491,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>189.2921341996816</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24528,7 +24528,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>127.8460714905183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24570,7 +24570,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24585,7 +24585,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24807,16 +24807,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>64.75056867910476</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>209.3158484108216</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24886,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24962,13 +24962,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,7 +24980,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>257.4021743712353</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,25 +24996,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>118.8299955175883</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>48.95475064628057</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>326.5413387258914</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25199,16 +25199,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>109.568234030201</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>27.26179070270006</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,7 +25290,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,16 +25436,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,22 +25476,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>54.10473810025097</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>177.7172232977545</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25631,10 +25631,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394456</v>
       </c>
       <c r="E41" t="n">
-        <v>200.9102526910244</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25710,19 +25710,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>85.83195917664705</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>127.5172229668189</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25767,7 +25767,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25865,7 +25865,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>149.1651971824026</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2648786994755</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25959,13 +25959,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>44.82571908545521</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>194.6747682342683</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457752.232156533</v>
+        <v>457752.2321565329</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457752.2321565329</v>
+        <v>457752.232156533</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457752.232156533</v>
+        <v>457752.2321565329</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482163.6750662231</v>
+        <v>482163.6750662234</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482163.6750662233</v>
+        <v>482163.6750662234</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457752.232156533</v>
+        <v>457752.2321565329</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457752.2321565331</v>
+        <v>457752.2321565329</v>
       </c>
     </row>
   </sheetData>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="C4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="D4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21583.9953644659</v>
+        <v>-20751.1388167425</v>
       </c>
       <c r="C6" t="n">
-        <v>47289.76121722392</v>
+        <v>48122.61776494741</v>
       </c>
       <c r="D6" t="n">
-        <v>47289.76121722391</v>
+        <v>48122.61776494737</v>
       </c>
       <c r="E6" t="n">
-        <v>80917.36121722395</v>
+        <v>81750.21776494733</v>
       </c>
       <c r="F6" t="n">
-        <v>80917.36121722391</v>
+        <v>81750.21776494737</v>
       </c>
       <c r="G6" t="n">
-        <v>73958.60565378828</v>
+        <v>74836.43455780763</v>
       </c>
       <c r="H6" t="n">
-        <v>83687.64862795535</v>
+        <v>84565.4775319747</v>
       </c>
       <c r="I6" t="n">
-        <v>83687.64862795532</v>
+        <v>84565.4775319747</v>
       </c>
       <c r="J6" t="n">
-        <v>29915.13773774592</v>
+        <v>30792.96664176531</v>
       </c>
       <c r="K6" t="n">
-        <v>83687.64862795538</v>
+        <v>84565.47753197473</v>
       </c>
       <c r="L6" t="n">
-        <v>83687.64862795532</v>
+        <v>84565.4775319747</v>
       </c>
       <c r="M6" t="n">
-        <v>83687.64862795538</v>
+        <v>84565.47753197467</v>
       </c>
       <c r="N6" t="n">
-        <v>83687.64862795535</v>
+        <v>84565.47753197473</v>
       </c>
       <c r="O6" t="n">
-        <v>80917.36121722394</v>
+        <v>81750.21776494733</v>
       </c>
       <c r="P6" t="n">
-        <v>80917.36121722394</v>
+        <v>81750.2177649474</v>
       </c>
     </row>
   </sheetData>
@@ -34702,7 +34702,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34711,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35027,10 +35027,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,7 +35422,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35659,7 +35659,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37874,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,19 +38099,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>502916.8235596364</v>
+        <v>503703.4151562953</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18548951.26311749</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5433537.543930879</v>
+        <v>5446370.044423792</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.336946277399601</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.170977004479174</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>42.79407960147137</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>162.5320513878378</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.22620338270564</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>205.5178444382804</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1500,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>130.7406573088296</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>54.97933811727043</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>189.221002135806</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2160,28 +2162,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>90.8316949233748</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>163.5442732109544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2263,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>241.0142888776591</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>123.3318114556564</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>80.16374038692172</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2515,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2640,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>63.88882306452232</v>
+        <v>173.8719901972344</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>16.62553367015321</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>96.11446174710331</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>27.77528313300961</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3366,7 +3368,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3503,14 +3505,14 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>80.33470701582003</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>90.96447429313291</v>
+        <v>58.47078044334126</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>61.6131063879917</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>72.14051087413576</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.75276230839013</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>5.489960460553293</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>809.472903150106</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>441.0602509429012</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>233.4664686820119</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>25.87268642112264</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>25.87268642112264</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.87268642112264</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.94135112442973</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>63.94135112442973</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="S4" t="n">
-        <v>63.94135112442973</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.1051990630351</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>651.2927635848137</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>443.6989813239244</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>236.1051990630351</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.8944568361894</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>752.1869855945927</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W6" t="n">
-        <v>774.2973583780361</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X6" t="n">
-        <v>566.7035761171468</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y6" t="n">
-        <v>359.1097938562575</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>752.6375612701642</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.8907214957869</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>339.8907214957869</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>339.8907214957869</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>180.6532664903314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>180.6532664903314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>41.92244107294692</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>41.92244107294692</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>547.4845037566762</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>547.4845037566762</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>547.4845037566762</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X9" t="n">
-        <v>339.8907214957869</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y9" t="n">
-        <v>339.8907214957869</v>
+        <v>183.4549323908569</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
-        <v>64.21544693014803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>406.8838132313431</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>406.8838132313431</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>406.8838132313431</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>406.8838132313431</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>406.8838132313431</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.9018483060073</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="C15" t="n">
-        <v>720.9018483060073</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>720.9018483060073</v>
+        <v>772.9248301209332</v>
       </c>
       <c r="W15" t="n">
-        <v>720.9018483060073</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="X15" t="n">
-        <v>720.9018483060073</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="Y15" t="n">
-        <v>720.9018483060073</v>
+        <v>529.4760534768332</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>601.5428246748836</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C17" t="n">
-        <v>358.0940480307835</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D17" t="n">
-        <v>114.6452713866835</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>601.5428246748836</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>601.5428246748836</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V17" t="n">
-        <v>601.5428246748836</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W17" t="n">
-        <v>601.5428246748836</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X17" t="n">
-        <v>601.5428246748836</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.5428246748836</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>529.4760534768332</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C21" t="n">
-        <v>529.4760534768332</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D21" t="n">
-        <v>529.4760534768332</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>370.2385984713777</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>872.3079687193485</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>872.3079687193485</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y21" t="n">
-        <v>697.6913904969012</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C23" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C23" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,25 +6013,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
         <v>506.1786963984129</v>
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>582.8795121963512</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C24" t="n">
-        <v>408.4264829152243</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="D24" t="n">
-        <v>259.492073253973</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="E24" t="n">
-        <v>100.2546182485175</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F24" t="n">
-        <v>100.2546182485175</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G24" t="n">
-        <v>100.2546182485175</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.8795121963512</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6165,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>495.259035872464</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C26" t="n">
-        <v>251.810259228364</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y26" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>83.81530782185143</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>470.4902185192667</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>470.4902185192667</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0414418751666</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6648,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>459.5201808117111</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>459.5201808117111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>459.5201808117111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>459.5201808117111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6791,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>627.7355178317791</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X33" t="n">
-        <v>627.7355178317791</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y33" t="n">
-        <v>627.7355178317791</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F35" t="n">
         <v>506.1786963984129</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>251.7598820467572</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>251.7598820467572</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D36" t="n">
-        <v>251.7598820467572</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E36" t="n">
-        <v>251.7598820467572</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F36" t="n">
-        <v>251.7598820467572</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>419.9752190668252</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,10 +7195,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
         <v>731.528039392485</v>
@@ -7217,7 +7219,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>454.3181732824481</v>
+        <v>78.34253749742612</v>
       </c>
       <c r="C39" t="n">
-        <v>454.3181732824481</v>
+        <v>78.34253749742612</v>
       </c>
       <c r="D39" t="n">
-        <v>454.3181732824481</v>
+        <v>78.34253749742612</v>
       </c>
       <c r="E39" t="n">
-        <v>454.3181732824481</v>
+        <v>78.34253749742612</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7296,7 +7298,7 @@
         <v>454.3181732824481</v>
       </c>
       <c r="Y39" t="n">
-        <v>454.3181732824481</v>
+        <v>246.5578745174942</v>
       </c>
     </row>
     <row r="40">
@@ -7360,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D42" t="n">
-        <v>176.4330152133036</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>163.1080096386462</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>515.5840134169036</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>515.5840134169036</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>453.0030327087026</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>245.4092504478133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>245.4092504478133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>245.4092504478133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>245.4092504478133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>37.81546818692397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>660.5968149695918</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>660.5968149695918</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.1299698690994</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="C45" t="n">
-        <v>166.1299698690994</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>541.9390891500567</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>541.9390891500567</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>541.9390891500567</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W45" t="n">
-        <v>541.9390891500567</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X45" t="n">
-        <v>541.9390891500567</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y45" t="n">
-        <v>334.3453068891674</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>360.3696370111358</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>143.091025904242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>213.1865395540696</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8696,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,16 +8932,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>160.0786444523452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9968,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>286.7024424905649</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22601,13 +22603,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>302.1071331654493</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.1962373724677</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>158.6391496515137</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>92.18820311219361</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>180.9206650946079</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>180.1701406907881</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22866,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22914,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>183.1473024795035</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>204.3987039795849</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22984,13 +22986,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160426</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>252.344814527994</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23039,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>4.001132262029586</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23106,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>64.17042946870943</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23148,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23194,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23312,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23388,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23543,25 +23545,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23577,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>92.46572744736832</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,10 +23633,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>43.57958501361927</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5198830785557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>81.55953011607097</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23935,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24023,13 +24025,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24048,28 +24050,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.326139229268335</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.13842256634993</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>68.91450442245211</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24151,7 +24153,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>124.2586028933485</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>34.31326899974454</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>32.07170384957475</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24336,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24403,16 +24405,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24528,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>141.8841621389552</v>
+        <v>31.90099500624308</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24737,7 +24739,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24771,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>209.3158484108216</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24888,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24980,7 +24982,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>136.8980149423187</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>48.95475064628057</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>109.568234030201</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25254,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>128.6853625704253</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25479,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>54.10473810025097</v>
+        <v>86.59843195004262</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>85.83195917664705</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>153.8008712068391</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>17.48268192810633</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>194.6747682342683</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457752.2321565329</v>
+        <v>353215.8725815532</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457752.232156533</v>
+        <v>482163.6750662234</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457752.2321565331</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457752.232156533</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457752.2321565329</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482163.6750662233</v>
+        <v>482163.6750662231</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457752.2321565329</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457752.2321565329</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134093.9955596919</v>
+        <v>103507.5650319672</v>
       </c>
       <c r="C2" t="n">
-        <v>134093.9955596919</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>134093.9955596919</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="E2" t="n">
-        <v>134093.9955596919</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596919</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26350,10 +26352,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="O2" t="n">
-        <v>134093.9955596919</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="P2" t="n">
-        <v>134093.9955596919</v>
+        <v>141236.5716516326</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39848.29285289707</v>
+        <v>30559.48447978467</v>
       </c>
       <c r="C4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
+        <v>42017.42535589614</v>
+      </c>
+      <c r="H4" t="n">
         <v>42017.42535589615</v>
-      </c>
-      <c r="H4" t="n">
-        <v>42017.42535589614</v>
       </c>
       <c r="I4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
         <v>42017.42535589615</v>
@@ -26454,10 +26456,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="P4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20751.1388167425</v>
+        <v>18133.63952897619</v>
       </c>
       <c r="C6" t="n">
-        <v>48122.61776494741</v>
+        <v>-9638.444654693412</v>
       </c>
       <c r="D6" t="n">
-        <v>48122.61776494737</v>
+        <v>50937.87753197476</v>
       </c>
       <c r="E6" t="n">
-        <v>81750.21776494733</v>
+        <v>84565.47753197467</v>
       </c>
       <c r="F6" t="n">
-        <v>81750.21776494737</v>
+        <v>84565.4775319747</v>
       </c>
       <c r="G6" t="n">
-        <v>74836.43455780763</v>
+        <v>84565.47753197473</v>
       </c>
       <c r="H6" t="n">
-        <v>84565.4775319747</v>
+        <v>84565.47753197473</v>
       </c>
       <c r="I6" t="n">
-        <v>84565.4775319747</v>
+        <v>84565.47753197467</v>
       </c>
       <c r="J6" t="n">
-        <v>30792.96664176531</v>
+        <v>70564.24539169538</v>
       </c>
       <c r="K6" t="n">
-        <v>84565.47753197473</v>
+        <v>36308.52459834212</v>
       </c>
       <c r="L6" t="n">
         <v>84565.4775319747</v>
       </c>
       <c r="M6" t="n">
-        <v>84565.47753197467</v>
+        <v>84565.4775319747</v>
       </c>
       <c r="N6" t="n">
+        <v>84565.4775319747</v>
+      </c>
+      <c r="O6" t="n">
         <v>84565.47753197473</v>
       </c>
-      <c r="O6" t="n">
-        <v>81750.21776494733</v>
-      </c>
       <c r="P6" t="n">
-        <v>81750.2177649474</v>
+        <v>84565.47753197476</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O2" t="n">
-        <v>130.2714255894491</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>70.5902951096252</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35416,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36203,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36688,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>148.1480627106907</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503703.4151562953</v>
+        <v>399468.4712342219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18548951.26311749</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5446370.044423792</v>
+        <v>5433537.543930877</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>47.13383555196375</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>47.13383555196372</v>
+        <v>13.9434706946005</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.170977004479174</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>42.79407960147137</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.5320513878378</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>41.39970040110641</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1308,49 +1308,49 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>83.29898225634727</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>130.7406573088296</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>212.285385643442</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>107.2644082870342</v>
       </c>
       <c r="V15" t="n">
-        <v>189.221002135806</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1779,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J17" t="n">
-        <v>11.19305615617957</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>221.5616381211997</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>90.8316949233748</v>
+        <v>98.10479885422592</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="23">
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>18.91277644737617</v>
       </c>
       <c r="E24" t="n">
-        <v>123.3318114556564</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.78865291772223</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>173.8719901972344</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,67 +2712,67 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>232.8330857361503</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>82.28530073128384</v>
       </c>
     </row>
     <row r="34">
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120.9298661881966</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>58.47078044334126</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>72.14051087413576</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>94.75276230839013</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112.3871215328157</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>112.3871215328157</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>112.3871215328157</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>58.33406192680583</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>163.2132134803467</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>214.050116039799</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>112.3871215328157</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X2" t="n">
-        <v>112.3871215328157</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.3871215328157</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3871215328157</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680583</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0727123199487</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X3" t="n">
-        <v>166.4401811388256</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>27.95824356358591</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>27.95824356358591</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>27.95824356358591</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.95824356358591</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>718.6442178376129</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>718.6442178376129</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>718.6442178376129</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>718.6442178376129</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.883919072659</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>780.2534985600848</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="W9" t="n">
-        <v>391.2152311558108</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="X9" t="n">
-        <v>391.2152311558108</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="Y9" t="n">
-        <v>183.4549323908569</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C11" t="n">
-        <v>477.1596022224361</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D11" t="n">
-        <v>233.7108255783361</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>193.7341723913397</v>
+        <v>463.3441176391537</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>463.3441176391537</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U12" t="n">
-        <v>533.6469426057913</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V12" t="n">
-        <v>401.5856725968725</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W12" t="n">
-        <v>401.5856725968725</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X12" t="n">
-        <v>193.7341723913397</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7341723913397</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>749.627473042513</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>529.4760534768332</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="C15" t="n">
-        <v>529.4760534768332</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="D15" t="n">
-        <v>529.4760534768332</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E15" t="n">
-        <v>370.2385984713777</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7040404982626</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>713.7234905945012</v>
       </c>
       <c r="V15" t="n">
-        <v>772.9248301209332</v>
+        <v>713.7234905945012</v>
       </c>
       <c r="W15" t="n">
-        <v>529.4760534768332</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="X15" t="n">
-        <v>529.4760534768332</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="Y15" t="n">
-        <v>529.4760534768332</v>
+        <v>506.1297083336119</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.58726043968704</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C17" t="n">
-        <v>30.58726043968704</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D17" t="n">
-        <v>30.58726043968704</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E17" t="n">
-        <v>30.58726043968704</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F17" t="n">
-        <v>30.58726043968704</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G17" t="n">
-        <v>30.58726043968704</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H17" t="n">
-        <v>30.58726043968704</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I17" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>274.0360370837871</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V17" t="n">
-        <v>30.58726043968704</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W17" t="n">
-        <v>30.58726043968704</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X17" t="n">
-        <v>30.58726043968704</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y17" t="n">
-        <v>30.58726043968704</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>878.2251822441752</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>703.7721529630483</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>554.837743301797</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>395.6002882963414</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5603,43 +5603,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5694,22 +5694,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>501.9060370580465</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>872.3079687193485</v>
+        <v>864.9613990922262</v>
       </c>
       <c r="S21" t="n">
-        <v>872.3079687193485</v>
+        <v>864.9613990922262</v>
       </c>
       <c r="T21" t="n">
-        <v>670.1213740781145</v>
+        <v>864.9613990922262</v>
       </c>
       <c r="U21" t="n">
-        <v>670.1213740781145</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="V21" t="n">
-        <v>670.1213740781145</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>670.1213740781145</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>670.1213740781145</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>670.1213740781145</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5955,7 +5955,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.6929175551172</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="C24" t="n">
-        <v>380.6929175551172</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="D24" t="n">
-        <v>380.6929175551172</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E24" t="n">
-        <v>256.1153302261713</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6080,13 +6080,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y24" t="n">
-        <v>380.6929175551172</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>325.0531560887832</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="C27" t="n">
-        <v>325.0531560887832</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0531560887832</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>325.0531560887832</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y27" t="n">
-        <v>325.0531560887832</v>
+        <v>35.98341002332393</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6733,19 +6733,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
         <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6815,16 +6815,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>777.5613083818946</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D36" t="n">
-        <v>667.4527462414319</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>508.2152912359765</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78.34253749742612</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>78.34253749742612</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>78.34253749742612</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>78.34253749742612</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>454.3181732824481</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>246.5578745174942</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C41" t="n">
-        <v>964.0571555106362</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>272.1352367728036</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C42" t="n">
-        <v>272.1352367728036</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D42" t="n">
-        <v>272.1352367728036</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E42" t="n">
-        <v>272.1352367728036</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>515.5840134169036</v>
+        <v>639.976906990516</v>
       </c>
       <c r="V42" t="n">
-        <v>515.5840134169036</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="W42" t="n">
-        <v>272.1352367728036</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X42" t="n">
-        <v>272.1352367728036</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y42" t="n">
-        <v>272.1352367728036</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>290.1981659616912</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>115.7451366805642</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7451366805642</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>115.7451366805642</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>115.7451366805642</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>115.7451366805642</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057913</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V45" t="n">
-        <v>533.6469426057913</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>290.1981659616912</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>290.1981659616912</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>290.1981659616912</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>243.2069195535496</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8777,13 +8777,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9971,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11305,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>312.0431814381598</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22552,13 +22552,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>328.417841062312</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22600,16 +22600,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>302.1071331654493</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22628,10 +22628,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>158.6391496515137</v>
+        <v>191.829514508877</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.18820311219361</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>248.0803368506399</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>183.1473024795035</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22986,13 +22986,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>252.344814527994</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055691</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.001132262029586</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>58.75813375153672</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,10 +23314,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>83.23420139352007</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>102.0599298405957</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>235.8466275750188</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>136.955583073971</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23582,13 +23582,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>118.6769737939406</v>
       </c>
       <c r="V15" t="n">
-        <v>43.57958501361927</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23752,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7562331984329429</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81.55953011607097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>4.379743959775084</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23934,13 +23934,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24022,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.326139229268335</v>
+        <v>2.053035298417214</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.91450442245211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24153,7 +24153,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24208,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>181.5942737834321</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>128.5322891172626</v>
       </c>
       <c r="E24" t="n">
-        <v>34.31326899974454</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24530,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>73.60797993369285</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>31.90099500624308</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24727,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>257.4021743712353</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9362516896722</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>135.7807179558421</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,7 +24937,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24973,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>136.8980149423187</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25055,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>123.3973950460205</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25159,19 +25159,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>336.5320379404362</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25235,25 +25235,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>26.5151993764422</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25289,16 +25289,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>86.59843195004262</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>223.6537128514005</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25687,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25721,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25757,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>153.8008712068391</v>
+        <v>45.66785602599526</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25961,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>17.48268192810633</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>353215.8725815532</v>
+        <v>457752.232156533</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482163.6750662234</v>
+        <v>457752.232156533</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482163.6750662233</v>
+        <v>457752.232156533</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482163.6750662233</v>
+        <v>457752.2321565329</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482163.6750662233</v>
+        <v>457752.232156533</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482163.6750662233</v>
+        <v>482163.6750662231</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482163.6750662231</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482163.6750662233</v>
+        <v>482163.6750662231</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482163.6750662233</v>
+        <v>457752.232156533</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482163.6750662233</v>
+        <v>457752.232156533</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103507.5650319672</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516326</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="E2" t="n">
-        <v>141236.5716516325</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>141236.5716516325</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26352,10 +26352,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="O2" t="n">
-        <v>141236.5716516325</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="P2" t="n">
-        <v>141236.5716516326</v>
+        <v>134093.9955596919</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>68873.75658168984</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9729.042974167098</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>53772.51089020943</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30559.48447978467</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="C4" t="n">
+        <v>39848.29285289707</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39848.29285289707</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39848.29285289707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39848.29285289707</v>
+      </c>
+      <c r="G4" t="n">
         <v>42017.42535589615</v>
       </c>
-      <c r="D4" t="n">
-        <v>42017.42535589615</v>
-      </c>
-      <c r="E4" t="n">
-        <v>42017.42535589615</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42017.42535589615</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>42017.42535589614</v>
-      </c>
-      <c r="H4" t="n">
-        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
         <v>42017.42535589615</v>
@@ -26456,10 +26456,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>42017.42535589615</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>42017.42535589615</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18133.63952897619</v>
+        <v>-33389.30097160301</v>
       </c>
       <c r="C6" t="n">
-        <v>-9638.444654693412</v>
+        <v>35484.45561008686</v>
       </c>
       <c r="D6" t="n">
-        <v>50937.87753197476</v>
+        <v>35484.4556100869</v>
       </c>
       <c r="E6" t="n">
-        <v>84565.47753197467</v>
+        <v>69112.05561008687</v>
       </c>
       <c r="F6" t="n">
-        <v>84565.4775319747</v>
+        <v>69112.05561008684</v>
       </c>
       <c r="G6" t="n">
-        <v>84565.47753197473</v>
+        <v>62618.42393776717</v>
       </c>
       <c r="H6" t="n">
-        <v>84565.47753197473</v>
+        <v>72347.46691193423</v>
       </c>
       <c r="I6" t="n">
-        <v>84565.47753197467</v>
+        <v>72347.46691193426</v>
       </c>
       <c r="J6" t="n">
-        <v>70564.24539169538</v>
+        <v>18574.95602172483</v>
       </c>
       <c r="K6" t="n">
-        <v>36308.52459834212</v>
+        <v>72347.46691193426</v>
       </c>
       <c r="L6" t="n">
-        <v>84565.4775319747</v>
+        <v>72347.46691193426</v>
       </c>
       <c r="M6" t="n">
-        <v>84565.4775319747</v>
+        <v>72347.46691193426</v>
       </c>
       <c r="N6" t="n">
-        <v>84565.4775319747</v>
+        <v>72347.46691193426</v>
       </c>
       <c r="O6" t="n">
-        <v>84565.47753197473</v>
+        <v>69112.05561008687</v>
       </c>
       <c r="P6" t="n">
-        <v>84565.47753197476</v>
+        <v>69112.05561008684</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570938</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570936</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>104.6525397736754</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35497,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>113.3808631277494</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36691,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9091475161415</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
